--- a/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
+++ b/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>002510</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国收益增强债券A</t>
+          <t>申万菱信中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000812</t>
+          <t>001471</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国收益增强债券C</t>
+          <t>融通新能源灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006265</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>红土创新新科技股票</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>501201</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>000810</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
+          <t>富国收益增强债券A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>163818</t>
+          <t>002252</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银中小盘成长混合</t>
+          <t>融通成长30灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.82</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000496</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长安产业精选灵活配置混合A</t>
+          <t>中融新经济灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>82.42</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001281</t>
+          <t>006265</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长安鑫利优选灵活配置混合A</t>
+          <t>红土创新新科技股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>81.39</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合A</t>
+          <t>申万菱信量化小盘股票(LOF)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001388</t>
+          <t>003877</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合C</t>
+          <t>富国久利稳健配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001471</t>
+          <t>005117</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>融通新能源灵活配置混合</t>
+          <t>金信价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001701</t>
+          <t>007527</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融产业升级灵活配置混合</t>
+          <t>融通量化多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001830</t>
+          <t>001701</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>融通跨界成长灵活配置混合</t>
+          <t>中融产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007795</t>
+          <t>000812</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数增强C</t>
+          <t>富国收益增强债券C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002071</t>
+          <t>001388</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长安产业精选灵活配置混合C</t>
+          <t>中融新经济灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>82.42</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002072</t>
+          <t>005418</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>长安鑫利优选灵活配置混合C</t>
+          <t>申万菱信量化驱动混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>81.39</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002252</t>
+          <t>007795</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>融通成长30灵活配置混合</t>
+          <t>申万菱信中证500指数增强C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009336</t>
+          <t>001830</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>平安中证500指数增强A</t>
+          <t>融通跨界成长灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>95.78</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009337</t>
+          <t>005477</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>平安中证500指数增强C</t>
+          <t>长安鑫禧灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>95.78</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002510</t>
+          <t>163818</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数增强A</t>
+          <t>中银中小盘成长混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003877</t>
+          <t>001281</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富国久利稳健配置混合A</t>
+          <t>长安鑫利优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27.16</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003878</t>
+          <t>000496</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富国久利稳健配置混合C</t>
+          <t>长安产业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27.16</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>515590</t>
+          <t>002071</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>前海开源中证500等权重ETF</t>
+          <t>长安产业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>92.59</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005418</t>
+          <t>002072</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>申万菱信量化驱动混合</t>
+          <t>长安鑫利优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005117</t>
+          <t>009336</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合A</t>
+          <t>平安中证500指数增强A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1202,15 +1462,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>92.56</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>5.16</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005477</t>
+          <t>007528</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>长安鑫禧灵活配置混合A</t>
+          <t>融通量化多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>87.58</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1248,25 +1528,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005478</t>
+          <t>515590</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>长安鑫禧灵活配置混合C</t>
+          <t>前海开源中证500等权重ETF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>87.58</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>007527</t>
+          <t>005478</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>融通量化多策略灵活配置混合A</t>
+          <t>长安鑫禧灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1304,26 +1604,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>007528</t>
+          <t>009337</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>融通量化多策略灵活配置混合C</t>
+          <t>平安中证500指数增强C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1332,26 +1642,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>501201</t>
+          <t>003878</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+          <t>富国久利稳健配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>99.46</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1365,7 +1685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,15 +1706,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1416,15 +1746,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>26.37</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.49</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1444,15 +1784,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>26.37</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.49</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
+++ b/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1809,4 +1810,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7936</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010869</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富稳健欣享一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>41.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
+++ b/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2360,4 +2361,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.8725</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>121.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3981</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9647</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5800</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5446</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2151</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7331</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
+++ b/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3101,4 +3102,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
+++ b/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3110,7 +3111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3121,17 +3122,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3141,14 +3162,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.65</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.4066</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3157,14 +3200,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.06</v>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>115.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.2862</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3173,14 +3238,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.2369</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3189,13 +3276,2809 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4757</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3140</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4450</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8806</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3260</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2418</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1329</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1284</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7949</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6514</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6514</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6369</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5601</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5499</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4718</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4686</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4639</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3979</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2909</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2662</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>74</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>31</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
+++ b/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5977,7 +5978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5988,17 +5989,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6008,14 +6029,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>74</v>
-      </c>
-      <c r="D2" t="n">
-        <v>55.07</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.0667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6024,14 +6067,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.65</v>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.2142</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6040,14 +6105,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.06</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6056,14 +6143,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>60.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2653</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6072,13 +6181,2485 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6073</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5954</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2962</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2067</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0576</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4416</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1891</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0644</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7240</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6853</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6853</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6747</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5787</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5530</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5501</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4858</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3895</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3794</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>31</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
+++ b/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8542,7 +8543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8553,17 +8554,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8573,14 +8594,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>66</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.74</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.1251</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -8589,14 +8632,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>74</v>
-      </c>
-      <c r="D3" t="n">
-        <v>55.07</v>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -8605,14 +8670,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.65</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>116.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.0694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8621,14 +8708,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.06</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -8637,14 +8746,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1482</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -8653,13 +8784,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0870</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6424</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5201</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4530</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3279</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>66</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>55.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>31</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
+++ b/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>30.94</v>
+        <v>26.98</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>50.74</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
-        <v>55.07</v>
+        <v>50.74</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D5" t="n">
-        <v>30.65</v>
+        <v>55.07</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>3.06</v>
+        <v>30.65</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>31</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.21</v>
       </c>
     </row>
@@ -600,6 +617,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8786</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9197</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4388</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8462</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6000</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6422</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5806</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2915</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015322</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015936</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3789,7 +4622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6655,7 +7488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7395,7 +8228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7945,7 +8778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8077,7 +8910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
+++ b/数据整理/stocks/A股/上证主板/601865-福莱特.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>26.98</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>30.94</v>
+        <v>26.98</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>50.74</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D5" t="n">
-        <v>55.07</v>
+        <v>50.74</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D6" t="n">
-        <v>30.65</v>
+        <v>55.07</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>3.06</v>
+        <v>30.65</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07000000000000001</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,1268 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>31</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000812</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +1934,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>130.03</t>
+          <t>121.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.8786</t>
+          <t>6.8752</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,26 +1972,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.58</t>
+          <t>78.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.2440</t>
+          <t>5.3424</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +2010,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.59</t>
+          <t>96.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.9197</t>
+          <t>5.1050</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -797,22 +2048,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>65.56</t>
+          <t>58.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>93.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.4388</t>
+          <t>3.0273</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -835,26 +2086,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.57</t>
+          <t>24.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.20</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.8462</t>
+          <t>1.9189</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +2114,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011479</t>
+          <t>011121</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发诚享混合A</t>
+          <t>广发兴诚混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>36.88</t>
+          <t>21.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.6080</t>
+          <t>1.6409</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +2152,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011121</t>
+          <t>011479</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发兴诚混合A</t>
+          <t>广发诚享混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>34.68</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.20</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.6000</t>
+          <t>1.6334</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +2190,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>013141</t>
+          <t>014725</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中信保诚弘远混合A</t>
+          <t>广发成长动力三年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19.17</t>
+          <t>28.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.40</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6422</t>
+          <t>1.0999</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +2228,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>165516</t>
+          <t>010160</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>信诚周期轮动混合（LOF）A</t>
+          <t>广发高端制造股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17.70</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.67</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5806</t>
+          <t>0.5561</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +2266,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010160</t>
+          <t>015322</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发高端制造股票C</t>
+          <t>广发鑫享灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>93.36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4052</t>
+          <t>0.3721</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1063,26 +2314,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2915</t>
+          <t>0.2018</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1091,36 +2342,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>015322</t>
+          <t>011480</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发鑫享灵活配置混合C</t>
+          <t>广发诚享混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1864</t>
+          <t>0.1884</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +2380,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011480</t>
+          <t>014726</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发诚享混合C</t>
+          <t>广发成长动力三年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1831</t>
+          <t>0.1686</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +2418,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007074</t>
+          <t>009794</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国寿安保新蓝筹灵活配置混合</t>
+          <t>太平智选一年定期开放股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>88.44</t>
+          <t>88.49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0653</t>
+          <t>0.1601</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1205,36 +2456,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001742</t>
+          <t>001692</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发百发大数据策略精选灵活配置混合E</t>
+          <t>南方国策动力股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>40.85</t>
+          <t>87.60</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0557</t>
+          <t>0.0669</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1243,36 +2494,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010821</t>
+          <t>007074</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东方红多元策略混合B</t>
+          <t>国寿安保新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>85.64</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0182</t>
+          <t>0.0665</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1281,32 +2532,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>910017</t>
+          <t>010821</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东方红多元策略混合A</t>
+          <t>东方红多元策略混合B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0299</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1319,32 +2570,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001741</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发百发大数据策略精选灵活配置混合A</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>40.85</t>
+          <t>90.51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1357,36 +2608,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>014335</t>
+          <t>910017</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>信诚周期轮动混合（LOF）C</t>
+          <t>东方红多元策略混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>82.67</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +2646,34 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>015936</t>
+          <t>017494</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中信保诚弘远混合C</t>
+          <t>东方红多元策略混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>79.40</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1433,6 +2682,822 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8786</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9197</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4388</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8462</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6000</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6422</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5806</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2915</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015322</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015936</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2058,7 +4123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4622,7 +6687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7488,7 +9553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8228,7 +10293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8778,7 +10843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8908,1238 +10973,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002510</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2534</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001471</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通新能源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2241</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>168207</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2044</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501201</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1998</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000810</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国收益增强债券A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1717</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002252</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>融通成长30灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1679</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001387</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1658</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006265</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>红土创新新科技股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1560</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>163110</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0997</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003877</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国久利稳健配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>27.16</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0796</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005117</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0671</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007527</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>融通量化多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0662</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001701</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中融产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0642</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000812</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富国收益增强债券C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>20.26</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0549</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001388</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005418</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>申万菱信量化驱动混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0381</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007795</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0380</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001830</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>融通跨界成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005477</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>长安鑫禧灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.82</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001281</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>长安鑫利优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>81.39</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000496</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>长安产业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>82.42</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002071</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>长安产业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>82.42</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002072</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>长安鑫利优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>81.39</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009336</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>平安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>95.78</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005118</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007528</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>融通量化多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>515590</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>前海开源中证500等权重ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.59</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005478</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>长安鑫禧灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009337</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>平安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>95.78</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003878</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>富国久利稳健配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>27.16</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>